--- a/EshopTools/src/test/resources/OrderDetails.xlsx
+++ b/EshopTools/src/test/resources/OrderDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab72075\Downloads\jsl-eshop-test-sample-Eshop_Code_Merge_ALL (1)\jsl-eshop-test-sample-Eshop_Code_Merge_ALL\EshopTools\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C85FFE-270F-4A29-967E-CE01BDCF2964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C30D93-F9DC-469D-8EA3-8DCB2462A34C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="19455" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/EshopTools/src/test/resources/OrderDetails.xlsx
+++ b/EshopTools/src/test/resources/OrderDetails.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab72075\Downloads\jsl-eshop-test-sample-Eshop_Code_Merge_ALL (1)\jsl-eshop-test-sample-Eshop_Code_Merge_ALL\EshopTools\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C30D93-F9DC-469D-8EA3-8DCB2462A34C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C5689-4BE5-4D19-A0BC-A157D7A17680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="19455" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CustomerOrderNumber</t>
   </si>
@@ -42,43 +42,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>1010450663</t>
-  </si>
-  <si>
-    <t>690138777</t>
-  </si>
-  <si>
-    <t>PFL INTERNET AND UNLIMITED HOME PHONE</t>
-  </si>
-  <si>
-    <t>N79637803</t>
-  </si>
-  <si>
-    <t>https://ctl-consumer--pp1uat.lightning.force.com/</t>
-  </si>
-  <si>
     <t>Product</t>
-  </si>
-  <si>
-    <t>1010450771</t>
-  </si>
-  <si>
-    <t>690138857</t>
-  </si>
-  <si>
-    <t>N79637811</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>1010452247</t>
-  </si>
-  <si>
-    <t>690145492</t>
-  </si>
-  <si>
-    <t>N79638774</t>
   </si>
 </sst>
 </file>
@@ -94,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,18 +68,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,11 +107,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,24 +386,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCF544-09AA-4F22-907F-F08292200AC9}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DD09F3-C663-458F-AFA0-F079EB15C2AF}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="6" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -472,70 +416,9 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>